--- a/doc/examples/operation/operation-posttime.xlsx
+++ b/doc/examples/operation/operation-posttime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\frepple\community\doc\user-guide\cookbook\operation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-community\doc\examples\operation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25F2FBB-7DD4-4CE7-816E-EE7BFF771982}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B194EB9-DAC2-42EA-BD00-19DCD372BAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="-14130" windowWidth="27030" windowHeight="12405" tabRatio="782" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="buffer" sheetId="1" r:id="rId1"/>
@@ -24,19 +24,12 @@
     <sheet name="operation" sheetId="11" r:id="rId9"/>
     <sheet name="parameter" sheetId="19" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -207,6 +200,9 @@
   </si>
   <si>
     <t>delivery operation</t>
+  </si>
+  <si>
+    <t>2023-01-01 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -242,13 +238,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,7 +584,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,7 +624,7 @@
       <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>51</v>
       </c>
       <c r="D3">
@@ -647,13 +641,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="85.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -672,8 +666,8 @@
       <c r="A2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="1">
-        <v>41640</v>
+      <c r="B2" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
@@ -711,101 +705,100 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>36892</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>47848</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="b">
+      <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="b">
+      <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="b">
+      <c r="H2" t="b">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="b">
+      <c r="I2" t="b">
         <v>1</v>
       </c>
-      <c r="J2" s="2" t="b">
+      <c r="J2" t="b">
         <v>1</v>
       </c>
-      <c r="K2" s="2" t="b">
+      <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" s="2" t="b">
+      <c r="L2" t="b">
         <v>0</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -824,23 +817,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>0</v>
       </c>
     </row>
@@ -882,7 +874,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,7 +882,7 @@
     <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
     <col min="5" max="5" width="22.77734375" customWidth="1"/>
     <col min="6" max="6" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
@@ -906,7 +898,7 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -932,11 +924,11 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="1">
-        <v>41640</v>
+        <v>44927</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -944,7 +936,7 @@
       <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -958,11 +950,11 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="1">
-        <v>41646</v>
+        <v>44933</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -970,7 +962,7 @@
       <c r="G3">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -984,11 +976,11 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="1">
-        <v>41654</v>
+        <v>44941</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -996,7 +988,7 @@
       <c r="G4">
         <v>5</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1010,11 +1002,11 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="1">
-        <v>41660</v>
+        <v>44947</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -1022,7 +1014,7 @@
       <c r="G5">
         <v>5</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1065,7 +1057,7 @@
       <c r="A2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
@@ -1079,7 +1071,7 @@
       <c r="A3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
@@ -1093,7 +1085,7 @@
       <c r="A4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>51</v>
       </c>
       <c r="C4">
@@ -1104,16 +1096,16 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>-1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1140,7 +1132,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1148,7 +1140,7 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1180,7 +1172,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1188,7 +1180,7 @@
       <c r="A2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1209,7 +1201,7 @@
   <cols>
     <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1219,7 +1211,7 @@
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
@@ -1239,7 +1231,7 @@
       <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
@@ -1258,31 +1250,31 @@
       <c r="A3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <f t="shared" ref="E3:E4" si="0">8*3600</f>
         <v>28800</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>28800</v>
       </c>
